--- a/docs/mcode-r4/onco-core-TNMClinicalPrimaryTumorCategory.xlsx
+++ b/docs/mcode-r4/onco-core-TNMClinicalPrimaryTumorCategory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="488">
   <si>
     <t>Path</t>
   </si>
@@ -358,7 +358,7 @@
 </t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -412,14 +412,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event</t>
+  </si>
+  <si>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event. For example, a MedicationRequest may require a patient to have laboratory test performed before it is dispensed.</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -441,11 +441,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
 </t>
   </si>
   <si>
-    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+    <t>The larger procedure that this particular observation is a component or step</t>
+  </si>
+  <si>
+    <t>The larger procedure that this particular observation is a component or step.</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
@@ -1183,7 +1186,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1405,7 +1408,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1704,7 +1707,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3293,10 +3296,10 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3361,16 +3364,16 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3381,7 +3384,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3407,16 +3410,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3441,13 +3444,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3465,7 +3468,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>55</v>
@@ -3480,19 +3483,19 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3500,7 +3503,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3523,19 +3526,19 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3560,13 +3563,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3584,7 +3587,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3608,10 +3611,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3619,11 +3622,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3642,19 +3645,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3679,13 +3682,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3703,7 +3706,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3718,27 +3721,27 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3761,13 +3764,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3818,7 +3821,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3842,7 +3845,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3853,7 +3856,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3882,7 +3885,7 @@
         <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>103</v>
@@ -3926,7 +3929,7 @@
         <v>104</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
@@ -3935,7 +3938,7 @@
         <v>105</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3959,7 +3962,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3970,7 +3973,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3993,19 +3996,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4042,7 +4045,7 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4052,7 +4055,7 @@
         <v>105</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4073,10 +4076,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4087,10 +4090,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
@@ -4112,13 +4115,13 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4169,7 +4172,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4227,13 +4230,13 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4284,7 +4287,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4308,7 +4311,7 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4319,7 +4322,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4348,7 +4351,7 @@
         <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>103</v>
@@ -4392,7 +4395,7 @@
         <v>104</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>45</v>
@@ -4401,7 +4404,7 @@
         <v>105</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4425,7 +4428,7 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4436,7 +4439,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4462,23 +4465,23 @@
         <v>68</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>45</v>
@@ -4520,7 +4523,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4541,10 +4544,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4555,7 +4558,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4578,16 +4581,16 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4637,7 +4640,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4658,10 +4661,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4672,7 +4675,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4698,21 +4701,21 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>45</v>
@@ -4754,7 +4757,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4775,10 +4778,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4789,7 +4792,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4812,17 +4815,17 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4871,7 +4874,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4892,10 +4895,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4906,7 +4909,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4929,19 +4932,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4990,7 +4993,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5011,10 +5014,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5025,7 +5028,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5048,19 +5051,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5109,7 +5112,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5130,10 +5133,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5144,7 +5147,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5167,19 +5170,19 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5228,7 +5231,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5243,19 +5246,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5263,7 +5266,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5286,16 +5289,16 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5345,7 +5348,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5366,13 +5369,13 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5380,11 +5383,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5403,19 +5406,19 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5464,7 +5467,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5479,19 +5482,19 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5499,11 +5502,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5522,19 +5525,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5583,7 +5586,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5598,19 +5601,19 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5618,7 +5621,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5641,16 +5644,16 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5700,7 +5703,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5721,13 +5724,13 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5735,7 +5738,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5758,17 +5761,17 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5817,7 +5820,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5832,19 +5835,19 @@
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5852,7 +5855,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5875,19 +5878,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5916,7 +5919,7 @@
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5934,7 +5937,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5943,7 +5946,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>45</v>
@@ -5952,24 +5955,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5992,19 +5995,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6029,13 +6032,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6053,7 +6056,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6062,7 +6065,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>45</v>
@@ -6077,7 +6080,7 @@
         <v>97</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6088,11 +6091,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6111,19 +6114,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6148,13 +6151,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6172,7 +6175,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6190,24 +6193,24 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6230,19 +6233,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6291,7 +6294,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6312,10 +6315,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6349,16 +6352,16 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6388,7 +6391,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6406,7 +6409,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6424,24 +6427,24 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6464,19 +6467,19 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6501,11 +6504,11 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6523,7 +6526,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6544,10 +6547,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6558,7 +6561,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6581,16 +6584,16 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6640,7 +6643,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6658,24 +6661,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6698,16 +6701,16 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6757,7 +6760,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6775,24 +6778,24 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6815,19 +6818,19 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6876,7 +6879,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6888,7 +6891,7 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6897,10 +6900,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6911,7 +6914,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6934,13 +6937,13 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6991,7 +6994,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7015,7 +7018,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7026,7 +7029,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7055,7 +7058,7 @@
         <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>103</v>
@@ -7108,7 +7111,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7132,7 +7135,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7143,11 +7146,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7169,10 +7172,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>103</v>
@@ -7227,7 +7230,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7285,13 +7288,13 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7342,7 +7345,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7351,7 +7354,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>45</v>
@@ -7363,10 +7366,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7377,7 +7380,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7400,13 +7403,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7457,7 +7460,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7466,7 +7469,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>45</v>
@@ -7478,10 +7481,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7492,7 +7495,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7515,19 +7518,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7552,13 +7555,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7576,7 +7579,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7594,13 +7597,13 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7611,7 +7614,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7634,19 +7637,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7671,13 +7674,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7695,7 +7698,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7713,13 +7716,13 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7753,17 +7756,17 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7812,7 +7815,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7836,7 +7839,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7847,7 +7850,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7870,13 +7873,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7927,7 +7930,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7948,10 +7951,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7962,7 +7965,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7985,16 +7988,16 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8044,7 +8047,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8065,10 +8068,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8079,7 +8082,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8102,16 +8105,16 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8161,7 +8164,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8182,10 +8185,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8196,7 +8199,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8219,19 +8222,19 @@
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8280,7 +8283,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8292,7 +8295,7 @@
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8301,10 +8304,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8315,7 +8318,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8338,13 +8341,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8395,7 +8398,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8419,7 +8422,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8430,7 +8433,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8459,7 +8462,7 @@
         <v>101</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>103</v>
@@ -8512,7 +8515,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8536,7 +8539,7 @@
         <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8547,11 +8550,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8573,10 +8576,10 @@
         <v>100</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>103</v>
@@ -8631,7 +8634,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8666,7 +8669,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8689,19 +8692,19 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8726,13 +8729,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8750,7 +8753,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>55</v>
@@ -8768,16 +8771,16 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -8785,7 +8788,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8808,19 +8811,19 @@
         <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8869,7 +8872,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8887,24 +8890,24 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8927,19 +8930,19 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8964,13 +8967,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8988,7 +8991,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8997,7 +9000,7 @@
         <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
@@ -9012,7 +9015,7 @@
         <v>97</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9023,11 +9026,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9046,19 +9049,19 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9083,13 +9086,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9107,7 +9110,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9125,24 +9128,24 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9165,19 +9168,19 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9226,7 +9229,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9247,10 +9250,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9261,7 +9264,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9284,13 +9287,13 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9341,7 +9344,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9365,7 +9368,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9376,7 +9379,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9405,7 +9408,7 @@
         <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>103</v>
@@ -9458,7 +9461,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9482,7 +9485,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9493,11 +9496,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9519,10 +9522,10 @@
         <v>100</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>103</v>
@@ -9577,7 +9580,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9612,7 +9615,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9635,13 +9638,13 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9692,7 +9695,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9701,7 +9704,7 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -9713,10 +9716,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9727,7 +9730,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9750,13 +9753,13 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9807,7 +9810,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9816,7 +9819,7 @@
         <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>45</v>
@@ -9828,10 +9831,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9842,7 +9845,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9865,19 +9868,19 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9902,13 +9905,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9926,7 +9929,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9944,13 +9947,13 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9961,7 +9964,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9984,19 +9987,19 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10021,13 +10024,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10045,7 +10048,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10063,13 +10066,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10080,7 +10083,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10103,17 +10106,17 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10162,7 +10165,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10186,7 +10189,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10197,7 +10200,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10220,13 +10223,13 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10277,7 +10280,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10298,10 +10301,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>

--- a/docs/mcode-r4/onco-core-TNMClinicalPrimaryTumorCategory.xlsx
+++ b/docs/mcode-r4/onco-core-TNMClinicalPrimaryTumorCategory.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="485">
   <si>
     <t>Path</t>
   </si>
@@ -341,273 +341,263 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event</t>
+  </si>
+  <si>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event. For example, a MedicationRequest may require a patient to have laboratory test performed before it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
+</t>
+  </si>
+  <si>
+    <t>The larger procedure that this particular observation is a component or step</t>
+  </si>
+  <si>
+    <t>The larger procedure that this particular observation is a component or step.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.0</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>primarycancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition-extension}
-</t>
-  </si>
-  <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>The plan, proposal or order that is fulfilled in whole or in part by this event</t>
-  </si>
-  <si>
-    <t>The plan, proposal or order that is fulfilled in whole or in part by this event. For example, a MedicationRequest may require a patient to have laboratory test performed before it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
-</t>
-  </si>
-  <si>
-    <t>The larger procedure that this particular observation is a component or step</t>
-  </si>
-  <si>
-    <t>The larger procedure that this particular observation is a component or step.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.0</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -836,7 +826,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition)
 </t>
   </si>
   <si>
@@ -1688,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1698,7 +1688,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2754,17 +2744,19 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2799,39 +2791,43 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2879,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2903,7 +2899,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2918,7 +2914,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2931,25 +2927,23 @@
         <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2998,7 +2992,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -3013,19 +3007,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -3033,11 +3027,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3056,17 +3050,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -3115,7 +3109,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -3130,19 +3124,19 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -3150,11 +3144,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3173,18 +3167,18 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3232,7 +3226,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3247,16 +3241,16 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3267,41 +3261,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3325,13 +3321,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3349,13 +3345,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3364,19 +3360,19 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3384,7 +3380,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3392,7 +3388,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>55</v>
@@ -3401,25 +3397,25 @@
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3444,13 +3440,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3468,13 +3464,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3483,19 +3479,19 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3503,15 +3499,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>55</v>
@@ -3523,22 +3519,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3563,37 +3559,37 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3602,35 +3598,35 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>45</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>55</v>
@@ -3642,23 +3638,19 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3682,13 +3674,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3706,10 +3698,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3721,38 +3713,38 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3764,15 +3756,17 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3809,25 +3803,25 @@
         <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3845,7 +3839,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3856,15 +3850,15 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>44</v>
@@ -3876,21 +3870,23 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3926,19 +3922,17 @@
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3959,10 +3953,10 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3973,9 +3967,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3984,7 +3980,7 @@
         <v>55</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3996,20 +3992,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4045,17 +4037,19 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4076,10 +4070,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4090,17 +4084,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
@@ -4112,16 +4104,16 @@
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4172,13 +4164,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4196,7 +4188,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4207,18 +4199,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4230,15 +4222,17 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4275,25 +4269,25 @@
         <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4311,7 +4305,7 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4322,18 +4316,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4342,27 +4336,29 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>45</v>
@@ -4392,25 +4388,25 @@
         <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4425,10 +4421,10 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4439,7 +4435,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4462,26 +4458,24 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>45</v>
@@ -4523,7 +4517,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4544,10 +4538,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4558,7 +4552,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4581,24 +4575,24 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>45</v>
@@ -4640,7 +4634,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4661,10 +4655,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4675,7 +4669,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4698,24 +4692,24 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>45</v>
@@ -4757,7 +4751,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4778,10 +4772,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4792,7 +4786,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4815,17 +4809,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4874,7 +4870,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4895,10 +4891,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4909,7 +4905,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4932,19 +4928,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4993,7 +4989,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5014,10 +5010,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5028,7 +5024,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5036,7 +5032,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>55</v>
@@ -5051,19 +5047,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5127,19 +5123,19 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5147,7 +5143,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5155,10 +5151,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5170,20 +5166,18 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5231,13 +5225,13 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5246,19 +5240,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5266,18 +5260,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5289,18 +5283,20 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5348,13 +5344,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5363,31 +5359,31 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5397,7 +5393,7 @@
         <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
@@ -5406,19 +5402,19 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5467,7 +5463,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5482,31 +5478,31 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5516,7 +5512,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>45</v>
@@ -5525,20 +5521,18 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5586,7 +5580,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5601,19 +5595,19 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5621,7 +5615,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5632,7 +5626,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5644,18 +5638,18 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5703,13 +5697,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5718,27 +5712,27 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5746,13 +5740,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>45</v>
@@ -5761,17 +5755,19 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5796,13 +5792,11 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5820,42 +5814,42 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5863,34 +5857,34 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5915,11 +5909,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5937,7 +5933,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5946,7 +5942,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>45</v>
@@ -5955,35 +5951,35 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5995,19 +5991,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6032,40 +6028,40 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>45</v>
@@ -6074,35 +6070,35 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6114,19 +6110,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>156</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6151,13 +6147,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6175,7 +6171,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6193,24 +6189,24 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6221,7 +6217,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6233,20 +6229,18 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6270,13 +6264,11 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6294,13 +6286,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6312,24 +6304,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6340,7 +6332,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6352,18 +6344,20 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6387,11 +6381,11 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6409,7 +6403,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6427,24 +6421,24 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6455,7 +6449,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6467,20 +6461,18 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>156</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6504,29 +6496,31 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6544,24 +6538,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6584,16 +6578,16 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6643,7 +6637,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6661,24 +6655,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6701,18 +6695,20 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6760,42 +6756,42 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6806,7 +6802,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6818,20 +6814,16 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6879,19 +6871,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>384</v>
+        <v>180</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6900,10 +6892,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>392</v>
+        <v>181</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6914,18 +6906,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6937,15 +6929,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M45" s="2"/>
+      <c r="M45" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6994,13 +6988,13 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -7018,7 +7012,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7029,11 +7023,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7046,24 +7040,26 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>188</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7111,7 +7107,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7135,7 +7131,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7146,43 +7142,39 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>398</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7230,16 +7222,16 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>45</v>
@@ -7251,10 +7243,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7265,7 +7257,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7288,13 +7280,13 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7345,7 +7337,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7354,7 +7346,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>45</v>
@@ -7366,10 +7358,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7380,7 +7372,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7403,16 +7395,20 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7436,13 +7432,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7460,7 +7456,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7469,7 +7465,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>45</v>
@@ -7478,13 +7474,13 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7495,7 +7491,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7506,7 +7502,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7518,19 +7514,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7555,55 +7551,55 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AM50" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7614,7 +7610,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7625,7 +7621,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7637,19 +7633,17 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>156</v>
+        <v>425</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7674,13 +7668,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7698,13 +7692,13 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7716,13 +7710,13 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7733,7 +7727,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7756,18 +7750,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>428</v>
+        <v>177</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7815,7 +7807,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7836,10 +7828,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7850,7 +7842,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7861,7 +7853,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7870,18 +7862,20 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>182</v>
+        <v>435</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7930,13 +7924,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7951,10 +7945,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7965,7 +7959,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7976,7 +7970,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7988,16 +7982,16 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8047,7 +8041,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8068,10 +8062,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8082,7 +8076,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8093,7 +8087,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8105,18 +8099,20 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8164,7 +8160,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8176,7 +8172,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8185,10 +8181,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8199,7 +8195,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8210,7 +8206,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8219,23 +8215,19 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>451</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8283,19 +8275,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8304,10 +8296,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>456</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>457</v>
+        <v>181</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8318,18 +8310,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8341,15 +8333,17 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M57" s="2"/>
+      <c r="M57" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8398,13 +8392,13 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
@@ -8422,7 +8416,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8433,11 +8427,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8450,24 +8444,26 @@
         <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>101</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>188</v>
+        <v>395</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8515,7 +8511,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8539,7 +8535,7 @@
         <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8550,42 +8546,42 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>103</v>
+        <v>461</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8610,13 +8606,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8634,13 +8630,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8652,16 +8648,16 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>462</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8669,7 +8665,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8677,7 +8673,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>55</v>
@@ -8692,19 +8688,19 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>156</v>
+        <v>464</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>307</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8729,13 +8725,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8753,10 +8749,10 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>55</v>
@@ -8771,24 +8767,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8808,22 +8804,22 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>467</v>
+        <v>151</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8848,13 +8844,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8872,7 +8868,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8881,7 +8877,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>45</v>
@@ -8890,35 +8886,35 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8930,19 +8926,19 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>472</v>
+        <v>328</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>329</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>474</v>
+        <v>330</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8967,13 +8963,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8991,16 +8987,16 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
@@ -9009,28 +9005,28 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9049,19 +9045,19 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>331</v>
+        <v>474</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>332</v>
+        <v>475</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9086,13 +9082,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9110,7 +9106,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9128,19 +9124,19 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" hidden="true">
@@ -9156,7 +9152,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9168,20 +9164,16 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>477</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9229,13 +9221,13 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>476</v>
+        <v>180</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
@@ -9250,10 +9242,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>392</v>
+        <v>181</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9264,18 +9256,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9287,15 +9279,17 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M65" s="2"/>
+      <c r="M65" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9344,13 +9338,13 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
@@ -9368,7 +9362,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9379,11 +9373,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9396,24 +9390,26 @@
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>101</v>
+        <v>394</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>188</v>
+        <v>395</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9461,7 +9457,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9485,7 +9481,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9496,43 +9492,39 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>100</v>
+        <v>398</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9580,16 +9572,16 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>45</v>
@@ -9601,10 +9593,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9615,7 +9607,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9638,13 +9630,13 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9695,7 +9687,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9704,7 +9696,7 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -9716,10 +9708,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9730,7 +9722,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9753,16 +9745,20 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9786,13 +9782,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9810,7 +9806,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9819,7 +9815,7 @@
         <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>45</v>
@@ -9828,13 +9824,13 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9845,7 +9841,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9856,7 +9852,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9868,19 +9864,19 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9905,55 +9901,55 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9964,7 +9960,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9975,7 +9971,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -9987,19 +9983,17 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>156</v>
+        <v>425</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10024,13 +10018,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10048,13 +10042,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10066,13 +10060,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10083,7 +10077,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10106,18 +10100,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>428</v>
+        <v>177</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10165,7 +10157,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10186,135 +10178,20 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10324,7 +10201,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
